--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5E61E011-D981-4579-BA98-4E4C6C5ACBCA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D7651CF-F038-4851-AAC5-4F55F0153FBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,66 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>COD FLU</t>
+    <t>Chuva (mm)</t>
   </si>
   <si>
-    <t>NOME</t>
+    <t>Nível (cm)</t>
   </si>
   <si>
-    <t>NIVEL</t>
+    <t>Vazão (m3/s</t>
   </si>
   <si>
-    <t>CHUVA</t>
-  </si>
-  <si>
-    <t>VAZAO</t>
-  </si>
-  <si>
-    <t>Balbina Barramento</t>
-  </si>
-  <si>
-    <t>4913.7</t>
-  </si>
-  <si>
-    <t>4914.8</t>
-  </si>
-  <si>
-    <t>4914.6</t>
-  </si>
-  <si>
-    <t>4915.8</t>
-  </si>
-  <si>
-    <t>4915.7</t>
-  </si>
-  <si>
-    <t>4916.8</t>
-  </si>
-  <si>
-    <t>4915.9</t>
-  </si>
-  <si>
-    <t>4915.5</t>
-  </si>
-  <si>
-    <t>4915.2</t>
-  </si>
-  <si>
-    <t>4915.1</t>
-  </si>
-  <si>
-    <t>4914.5</t>
-  </si>
-  <si>
-    <t>4914.9</t>
-  </si>
-  <si>
-    <t>4914.7</t>
-  </si>
-  <si>
-    <t>4915.4</t>
+    <t>Data Hora</t>
   </si>
 </sst>
 </file>
@@ -120,10 +72,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,328 +361,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16070980</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16070980</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16070980</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16070980</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>16070980</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16070980</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16070980</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>16070980</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16070980</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16070980</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16070980</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16070980</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>16070980</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>16070980</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45200.917245370372</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <v>4913.7</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45200.875578703701</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>4914.8</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45200.833912037036</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>4914.6000000000004</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45200.792245370372</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>4915.8</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45200.750578703701</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>4915.7</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45200.708912037036</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <v>4916.8</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45200.667245370372</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>4915.8999999999996</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45200.625578703701</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>4915.5</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45200.583912037036</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>4915.7</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45200.542245370372</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>4915.2</v>
+      </c>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45200.500578703701</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>4915.1000000000004</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45200.458912037036</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>4914.6000000000004</v>
+      </c>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45200.417245370372</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>4914.5</v>
+      </c>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45200.375578703701</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
         <v>4915</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16070980</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45200.333912037036</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>4914.8999999999996</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16070980</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
+      <c r="A17" s="2">
+        <v>45200.292245370372</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>4914.8</v>
+      </c>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16070980</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="2">
+        <v>45200.250578703701</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
         <v>4915</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
+      <c r="D18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16070980</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2">
+        <v>45200.208912037036</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>4915.1000000000004</v>
+      </c>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16070980</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
+      <c r="A20" s="2">
+        <v>45200.167245370372</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>4914.7</v>
+      </c>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16070980</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
+      <c r="A21" s="2">
+        <v>45200.125578703701</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>4914.8</v>
+      </c>
+      <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16070980</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
+      <c r="A22" s="2">
+        <v>45200.000578703701</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <v>4915.3999999999996</v>
+      </c>
+      <c r="D22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D7651CF-F038-4851-AAC5-4F55F0153FBF}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D4D52F27-BE59-4A4D-A3FD-07BD7BA7671A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Vazão (m3/s</t>
   </si>
   <si>
-    <t>Data Hora</t>
+    <t>Data-Hora</t>
   </si>
 </sst>
 </file>
@@ -363,9 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D4D52F27-BE59-4A4D-A3FD-07BD7BA7671A}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{329F6508-3F62-49F4-BE58-80A020C287F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,15 +361,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -380,7 +382,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -596,6 +598,662 @@
         <v>4915.3999999999996</v>
       </c>
       <c r="D22"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45214.000578703701</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>4872.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45214.042245370372</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45214.083912037036</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3">
+        <v>4872.1000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45214.125578703701</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3">
+        <v>4872.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45214.167245370372</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
+        <v>4872.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45214.208912037036</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3">
+        <v>4871.8999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45214.250578703701</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45214.292245370372</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45214.333912037036</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3">
+        <v>4872.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45214.375578703701</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3">
+        <v>4871.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45214.417245370372</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3">
+        <v>4871.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45214.458912037036</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3">
+        <v>4871.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45214.500578703701</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3">
+        <v>4871.6000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45214.542245370372</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45214.583912037036</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3">
+        <v>4871.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45214.625578703701</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3">
+        <v>4871.3999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45214.667245370372</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3">
+        <v>4871.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45214.708912037036</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3">
+        <v>4872.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45214.750578703701</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3">
+        <v>4871.8999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45214.792245370372</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3">
+        <v>4872.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45214.833912037036</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3">
+        <v>4871.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45214.875578703701</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3">
+        <v>4872.3999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45215.000578703701</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3">
+        <v>4871.3</v>
+      </c>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45215.042245370372</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3">
+        <v>4871.2</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45215.083912037036</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3">
+        <v>4870.8</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45215.125578703701</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3">
+        <v>4870.8</v>
+      </c>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45215.167245370372</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3">
+        <v>4870.3</v>
+      </c>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45215.208912037036</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3">
+        <v>4870</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45215.250578703701</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3">
+        <v>4870.7</v>
+      </c>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45215.292245370372</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3">
+        <v>4870.3999999999996</v>
+      </c>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45215.333912037036</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3">
+        <v>4874</v>
+      </c>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45215.375578703701</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3">
+        <v>4874.5</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45215.417245370372</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3">
+        <v>4873.6000000000004</v>
+      </c>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45215.458912037036</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3">
+        <v>4872.8999999999996</v>
+      </c>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45215.500578703701</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3">
+        <v>4872.6000000000004</v>
+      </c>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45215.542245370372</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3">
+        <v>4872</v>
+      </c>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45215.583912037036</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3">
+        <v>4872.2</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45215.625578703701</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3">
+        <v>4872.3999999999996</v>
+      </c>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45215.667245370372</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3">
+        <v>4872.6000000000004</v>
+      </c>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45215.708912037036</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3">
+        <v>4872.7</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45215.750578703701</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3">
+        <v>4872.6000000000004</v>
+      </c>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45215.792245370372</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3">
+        <v>4872.6000000000004</v>
+      </c>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45215.833912037036</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3">
+        <v>4872.7</v>
+      </c>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45215.875578703701</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3">
+        <v>4873.2</v>
+      </c>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45215.917245370372</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3">
+        <v>4872.1000000000004</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45216.000578703701</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4872.6000000000004</v>
+      </c>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45216.042245370372</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4872.3999999999996</v>
+      </c>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45216.083912037036</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4871.8</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45216.125578703701</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4872.3</v>
+      </c>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45216.167245370372</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4871.8999999999996</v>
+      </c>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45216.208912037036</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4871.8</v>
+      </c>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45216.250578703701</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4871.1000000000004</v>
+      </c>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45216.292245370372</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4871.3999999999996</v>
+      </c>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45216.333912037036</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4870.8</v>
+      </c>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45216.375578703701</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4870.7</v>
+      </c>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45216.417245370372</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4870.8</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45216.458912037036</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4871.3</v>
+      </c>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45216.500578703701</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4870.8</v>
+      </c>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45216.542245370372</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>4870.5</v>
+      </c>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45216.583912037036</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4871.2</v>
+      </c>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45216.625578703701</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4870.6000000000004</v>
+      </c>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45216.667245370372</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>4869.8999999999996</v>
+      </c>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45216.708912037036</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>4870.5</v>
+      </c>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45216.750578703701</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4869.6000000000004</v>
+      </c>
+      <c r="D88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{329F6508-3F62-49F4-BE58-80A020C287F0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0837C069-0CB3-44F8-9F59-9DC375446E36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,13 +72,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1258,157 @@
       </c>
       <c r="D88"/>
     </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45216.792245370372</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4869.6000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45216.833912037036</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45216.875578703701</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4868.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45216.917245370372</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4868.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45216.958912037036</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4868.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45217.083912037036</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>4867.8999999999996</v>
+      </c>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45217.125578703701</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4868.7</v>
+      </c>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45217.167245370372</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4868.1000000000004</v>
+      </c>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45217.208912037036</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4868.2</v>
+      </c>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45217.250578703701</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4868.6000000000004</v>
+      </c>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45217.292245370372</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4868.1000000000004</v>
+      </c>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45217.333912037036</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4868.1000000000004</v>
+      </c>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45217.375578703701</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4867.8</v>
+      </c>
+      <c r="D101"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0837C069-0CB3-44F8-9F59-9DC375446E36}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11DB2416-3AE2-4D8C-99B6-0E734C27C6A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,6 +1409,72 @@
       </c>
       <c r="D101"/>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45217.417245370372</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4868.3999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45217.458912037036</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>4868.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45217.500578703701</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3">
+        <v>4867.3999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45217.542245370372</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4868.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45217.583912037036</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <v>4869.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45217.625578703701</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3">
+        <v>4868.1000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11DB2416-3AE2-4D8C-99B6-0E734C27C6A3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4760A83E-85EA-42F3-BF93-A47CB8EC6BB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>Data-Hora</t>
+  </si>
+  <si>
+    <t>4866.4</t>
+  </si>
+  <si>
+    <t>4868.9</t>
+  </si>
+  <si>
+    <t>4868.5</t>
+  </si>
+  <si>
+    <t>4868.3</t>
+  </si>
+  <si>
+    <t>4868.1</t>
+  </si>
+  <si>
+    <t>4867.5</t>
+  </si>
+  <si>
+    <t>4867.9</t>
+  </si>
+  <si>
+    <t>4867.3</t>
   </si>
 </sst>
 </file>
@@ -364,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1499,94 @@
         <v>4868.1000000000004</v>
       </c>
     </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45217.667245370372</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45217.708912037036</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45217.750578703701</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45217.792245370372</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45217.833912037036</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45217.875578703701</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45217.917245370372</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45217.958912037036</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4760A83E-85EA-42F3-BF93-A47CB8EC6BB9}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9BB4FEA0-0DCD-4A55-9CA0-B9AAD35D079A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>4867.3</t>
+  </si>
+  <si>
+    <t>4866.9</t>
+  </si>
+  <si>
+    <t>4868.2</t>
+  </si>
+  <si>
+    <t>4867.1</t>
   </si>
 </sst>
 </file>
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45217.875578703701</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45217.917245370372</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45217.958912037036</v>
       </c>
@@ -1586,6 +1595,126 @@
       <c r="C115" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45218.000578703701</v>
+      </c>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45218.042245370372</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45218.083912037036</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4868</v>
+      </c>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45218.125578703701</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>4868</v>
+      </c>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45218.167245370372</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45218.208912037036</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45218.250578703701</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45218.292245370372</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45218.333912037036</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45218.375578703701</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9BB4FEA0-0DCD-4A55-9CA0-B9AAD35D079A}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3EE65591-FFE3-44A3-98A9-47CEE46983A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,6 +1716,72 @@
       </c>
       <c r="D125"/>
     </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45218.417245370372</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>4867.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45218.458912037036</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>4866.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45218.500578703701</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>4866.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45218.542245370372</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>4867.6000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45218.583912037036</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45218.625578703701</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>4866.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3EE65591-FFE3-44A3-98A9-47CEE46983A2}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E3432530-3DC9-45BF-A99F-3FDDA71CF29F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>4867.1</t>
+  </si>
+  <si>
+    <t>4864.3</t>
+  </si>
+  <si>
+    <t>4863.5</t>
+  </si>
+  <si>
+    <t>4863.1</t>
+  </si>
+  <si>
+    <t>4863.2</t>
+  </si>
+  <si>
+    <t>4863.8</t>
+  </si>
+  <si>
+    <t>4863.4</t>
+  </si>
+  <si>
+    <t>4863.7</t>
+  </si>
+  <si>
+    <t>4863.9</t>
+  </si>
+  <si>
+    <t>4861.2</t>
   </si>
 </sst>
 </file>
@@ -397,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1776,7 @@
         <v>4866.3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45218.542245370372</v>
       </c>
@@ -1760,7 +1787,7 @@
         <v>4867.6000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45218.583912037036</v>
       </c>
@@ -1771,7 +1798,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45218.625578703701</v>
       </c>
@@ -1781,6 +1808,226 @@
       <c r="C131">
         <v>4866.3</v>
       </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45218.667245370372</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>4866.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45218.708912037036</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>4865.1000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45218.750578703701</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>4864.8999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45218.792245370372</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>4863.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45218.833912037036</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>4864.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45218.875578703701</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>4863.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45218.917245370372</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>4864.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45218.958912037036</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>4864.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45219.000578703701</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45219.042245370372</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45219.083912037036</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45219.125578703701</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45219.167245370372</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45219.208912037036</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45219.250578703701</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4864</v>
+      </c>
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45219.292245370372</v>
+      </c>
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45219.333912037036</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4864</v>
+      </c>
+      <c r="D148"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45219.375578703701</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45219.417245370372</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E3432530-3DC9-45BF-A99F-3FDDA71CF29F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9F56A76-27AB-4D24-AC83-5F38E3D57175}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,6 +2029,83 @@
       </c>
       <c r="D150"/>
     </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45219.458912037036</v>
+      </c>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>4861.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45219.500578703701</v>
+      </c>
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>4861.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45219.542245370372</v>
+      </c>
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>4862.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45219.583912037036</v>
+      </c>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>4861.8999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45219.625578703701</v>
+      </c>
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>4861.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45219.667245370372</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>4861.6000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45219.708912037036</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>4860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9F56A76-27AB-4D24-AC83-5F38E3D57175}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4EC81553-C056-4B20-9A64-63829AE39C88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2106,71 @@
         <v>4860</v>
       </c>
     </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45219.750578703701</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+      <c r="C158" s="3">
+        <v>4860.2</v>
+      </c>
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45219.792245370372</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3">
+        <v>4861.2</v>
+      </c>
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45219.833912037036</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="C160" s="3">
+        <v>4860</v>
+      </c>
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45219.875578703701</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>4859.8</v>
+      </c>
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45219.917245370372</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+      <c r="C162" s="3">
+        <v>4860</v>
+      </c>
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="D163"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4EC81553-C056-4B20-9A64-63829AE39C88}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A82F6C32-9406-41B1-AE12-434481B75FB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>4861.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="D144"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45219.208912037036</v>
       </c>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="D145"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45219.250578703701</v>
       </c>
@@ -1981,7 +1984,7 @@
       </c>
       <c r="D146"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45219.292245370372</v>
       </c>
@@ -1993,7 +1996,7 @@
       </c>
       <c r="D147"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45219.333912037036</v>
       </c>
@@ -2005,7 +2008,7 @@
       </c>
       <c r="D148"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45219.375578703701</v>
       </c>
@@ -2017,7 +2020,7 @@
       </c>
       <c r="D149"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45219.417245370372</v>
       </c>
@@ -2029,7 +2032,7 @@
       </c>
       <c r="D150"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45219.458912037036</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>4861.8</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45219.500578703701</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>4861.3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45219.542245370372</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>4862.5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45219.583912037036</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>4861.8999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45219.625578703701</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>4861.8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45219.667245370372</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>4861.6000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45219.708912037036</v>
       </c>
@@ -2105,8 +2108,11 @@
       <c r="C157">
         <v>4860</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45219.750578703701</v>
       </c>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="D158"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45219.792245370372</v>
       </c>
@@ -2130,7 +2136,7 @@
       </c>
       <c r="D159"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45219.833912037036</v>
       </c>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A82F6C32-9406-41B1-AE12-434481B75FB9}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF3354A2-B5B0-4149-B55A-75CBC99BF36D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,9 +2173,184 @@
       <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="2">
+        <v>45220.042245370372</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>4860.2</v>
+      </c>
       <c r="D163"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45220.083912037036</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>4860.3999999999996</v>
+      </c>
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45220.125578703701</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>4860.3</v>
+      </c>
+      <c r="D165"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45220.167245370372</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>4860.3</v>
+      </c>
+      <c r="D166"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45220.208912037036</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>4860.5</v>
+      </c>
+      <c r="D167"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45220.250578703701</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>4860.8</v>
+      </c>
+      <c r="D168"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45220.292245370372</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>4861.1000000000004</v>
+      </c>
+      <c r="D169"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45220.333912037036</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>4861.1000000000004</v>
+      </c>
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45220.375578703701</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>4860.7</v>
+      </c>
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45220.417245370372</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>4860.5</v>
+      </c>
+      <c r="D172"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45220.458912037036</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>4860.3999999999996</v>
+      </c>
+      <c r="D173"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45220.500578703701</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>4859.3</v>
+      </c>
+      <c r="D174"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45220.542245370372</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>4860.7</v>
+      </c>
+      <c r="D175"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45220.583912037036</v>
+      </c>
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>4861.2</v>
+      </c>
+      <c r="D176"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45220.625578703701</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>4861.2</v>
+      </c>
+      <c r="D177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF3354A2-B5B0-4149-B55A-75CBC99BF36D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F5CF9150-1188-4D8E-90A4-2DD713C6BACF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,6 +2352,298 @@
       </c>
       <c r="D177"/>
     </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45220.667245370372</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>4860.6000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45220.708912037036</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>4860.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45220.750578703701</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>4859.8999999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45220.792245370372</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>4861.1000000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45220.833912037036</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>4859.6000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45220.875578703701</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>4859.8999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45220.917245370372</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>4859.3999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45220.958912037036</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>4859.1000000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45221.000578703701</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>4859</v>
+      </c>
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45221.042245370372</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>4858.8</v>
+      </c>
+      <c r="D187"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45221.083912037036</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>4858.6000000000004</v>
+      </c>
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45221.125578703701</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>4858.7</v>
+      </c>
+      <c r="D189"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45221.167245370372</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>4859.3999999999996</v>
+      </c>
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45221.208912037036</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>4859.3999999999996</v>
+      </c>
+      <c r="D191"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45221.250578703701</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>4859.7</v>
+      </c>
+      <c r="D192"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45221.292245370372</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>4859.7</v>
+      </c>
+      <c r="D193"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45221.333912037036</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>4859.3</v>
+      </c>
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45221.375578703701</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>4859.2</v>
+      </c>
+      <c r="D195"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45221.417245370372</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>4860.3999999999996</v>
+      </c>
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>45221.458912037036</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>4862</v>
+      </c>
+      <c r="D197"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>45221.500578703701</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>4859.3</v>
+      </c>
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>45221.542245370372</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>4861.3</v>
+      </c>
+      <c r="D199"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45221.583912037036</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>4860.8999999999996</v>
+      </c>
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45221.625578703701</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>4861.7</v>
+      </c>
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45221.667245370372</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>4860.7</v>
+      </c>
+      <c r="D202"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F5CF9150-1188-4D8E-90A4-2DD713C6BACF}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E7F508D-D363-4749-AA11-F66E4357A487}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
       <selection activeCell="F197" sqref="F197"/>
@@ -2644,6 +2644,90 @@
       </c>
       <c r="D202"/>
     </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45221.708912037036</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>4862.2</v>
+      </c>
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45221.750578703701</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>4863.1000000000004</v>
+      </c>
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45221.792245370372</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>4862.6000000000004</v>
+      </c>
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45221.833912037036</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>4862.3999999999996</v>
+      </c>
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45221.875578703701</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>4863.1000000000004</v>
+      </c>
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45221.917245370372</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>4862.3999999999996</v>
+      </c>
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45221.958912037036</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>4862.3999999999996</v>
+      </c>
+      <c r="D209"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8E7F508D-D363-4749-AA11-F66E4357A487}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45851FDE-2CA1-4E83-9B4F-A40A17B83861}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,6 +2728,114 @@
       </c>
       <c r="D209"/>
     </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45222.000578703701</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>4862.2</v>
+      </c>
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45222.042245370372</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>4862.8999999999996</v>
+      </c>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45222.083912037036</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>4860.8</v>
+      </c>
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45222.125578703701</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>4862</v>
+      </c>
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45222.167245370372</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>4862.2</v>
+      </c>
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45222.208912037036</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>4861.6000000000004</v>
+      </c>
+      <c r="D215"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45222.250578703701</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>4861.3</v>
+      </c>
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45222.292245370372</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>4862.5</v>
+      </c>
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45222.333912037036</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>4862.3</v>
+      </c>
+      <c r="D218"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45851FDE-2CA1-4E83-9B4F-A40A17B83861}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47F72403-6F98-4007-8646-02BA31E33921}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,6 +2836,114 @@
       </c>
       <c r="D218"/>
     </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45222.375578703701</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>4862.5</v>
+      </c>
+      <c r="D219"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45222.417245370372</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>4862.7</v>
+      </c>
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45222.458912037036</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>4862.2</v>
+      </c>
+      <c r="D221"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45222.500578703701</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>4862.3</v>
+      </c>
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45222.542245370372</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>4862.5</v>
+      </c>
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45222.583912037036</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>4861.6000000000004</v>
+      </c>
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45222.625578703701</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>4861.8</v>
+      </c>
+      <c r="D225"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45222.667245370372</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>4861.6000000000004</v>
+      </c>
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45222.708912037036</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>4861.6000000000004</v>
+      </c>
+      <c r="D227"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47F72403-6F98-4007-8646-02BA31E33921}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33F0A99D-8C7F-4EA9-9DE9-11AC1608CFB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,6 +2944,78 @@
       </c>
       <c r="D227"/>
     </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45222.750578703701</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>4861.7</v>
+      </c>
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45222.792245370372</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>4861.8</v>
+      </c>
+      <c r="D229"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45222.833912037036</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>4861.8</v>
+      </c>
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45222.875578703701</v>
+      </c>
+      <c r="B231" s="3">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>4862.1000000000004</v>
+      </c>
+      <c r="D231"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45222.917245370372</v>
+      </c>
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>4862.6000000000004</v>
+      </c>
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45222.958912037036</v>
+      </c>
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>4862.2</v>
+      </c>
+      <c r="D233"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33F0A99D-8C7F-4EA9-9DE9-11AC1608CFB2}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FFF50538-397D-421A-A862-E4BD2398C6EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="G236" sqref="G236"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,6 +3016,116 @@
       </c>
       <c r="D233"/>
     </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45223.000578703701</v>
+      </c>
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>4861.3999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45223.042245370372</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>4861.3999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45223.083912037036</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>4860.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45223.125578703701</v>
+      </c>
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>4860.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45223.167245370372</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>4860.6000000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45223.208912037036</v>
+      </c>
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>4860.6000000000004</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45223.250578703701</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>4860.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45223.292245370372</v>
+      </c>
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>4860.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45223.333912037036</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>4860.8999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45223.375578703701</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>4861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FFF50538-397D-421A-A862-E4BD2398C6EB}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70917884-A657-401B-B435-0A74C7B818FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,6 +3126,94 @@
         <v>4861</v>
       </c>
     </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45223.417245370372</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>4860.7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45223.458912037036</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45223.500578703701</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>4860.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45223.542245370372</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>4860.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45223.583912037036</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>4859.8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45223.625578703701</v>
+      </c>
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>4861.1000000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45223.667245370372</v>
+      </c>
+      <c r="B250" s="3">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>4862.3999999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45223.708912037036</v>
+      </c>
+      <c r="B251" s="3">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>4860.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70917884-A657-401B-B435-0A74C7B818FB}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A8CED05-2C5F-4C51-A68D-3850B3C7ACB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,6 +3214,506 @@
         <v>4860.7</v>
       </c>
     </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45223.750578703701</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>4861.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45223.792245370372</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>4859.8999999999996</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45223.833912037036</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>4860.3999999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45223.875578703701</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>4860.8999999999996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45223.958912037036</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>4859.6000000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45224.000578703701</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>4859.6000000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45224.042245370372</v>
+      </c>
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>4858.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45224.083912037036</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>4859.1000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45224.125578703701</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>4859.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45224.167245370372</v>
+      </c>
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>4859.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45224.208912037036</v>
+      </c>
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>4859.1000000000004</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45224.250578703701</v>
+      </c>
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>4858.8999999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45224.292245370372</v>
+      </c>
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>4858.8999999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45224.333912037036</v>
+      </c>
+      <c r="B265" s="3">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>45224.375578703701</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>4858.8999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>45224.417245370372</v>
+      </c>
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>4858.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>45224.458912037036</v>
+      </c>
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>4858.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>45224.500578703701</v>
+      </c>
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>4857.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>45224.542245370372</v>
+      </c>
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>4858.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>45224.583912037036</v>
+      </c>
+      <c r="B271" s="3">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>4858.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45224.625578703701</v>
+      </c>
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>4858.7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45224.667245370372</v>
+      </c>
+      <c r="B273" s="3">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>4856.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45224.708912037036</v>
+      </c>
+      <c r="B274" s="3">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>4857.1000000000004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45224.750578703701</v>
+      </c>
+      <c r="B275" s="3">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45224.792245370372</v>
+      </c>
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>4857.6000000000004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45224.833912037036</v>
+      </c>
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>4856.8999999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45224.875578703701</v>
+      </c>
+      <c r="B278" s="3">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>4857.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45224.958912037036</v>
+      </c>
+      <c r="B279" s="3">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>4855.6000000000004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45225.000578703701</v>
+      </c>
+      <c r="B280" s="3">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>4855.8999999999996</v>
+      </c>
+      <c r="D280"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45225.042245370372</v>
+      </c>
+      <c r="B281" s="3">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>4855.8999999999996</v>
+      </c>
+      <c r="D281"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45225.083912037036</v>
+      </c>
+      <c r="B282" s="3">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>4855.6000000000004</v>
+      </c>
+      <c r="D282"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45225.125578703701</v>
+      </c>
+      <c r="B283" s="3">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>4855.8</v>
+      </c>
+      <c r="D283"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45225.167245370372</v>
+      </c>
+      <c r="B284" s="3">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>4855.8999999999996</v>
+      </c>
+      <c r="D284"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45225.208912037036</v>
+      </c>
+      <c r="B285" s="3">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>4855.8999999999996</v>
+      </c>
+      <c r="D285"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45225.250578703701</v>
+      </c>
+      <c r="B286" s="3">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>4856.1000000000004</v>
+      </c>
+      <c r="D286"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45225.292245370372</v>
+      </c>
+      <c r="B287" s="3">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>4856</v>
+      </c>
+      <c r="D287"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45225.333912037036</v>
+      </c>
+      <c r="B288" s="3">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>4856.1000000000004</v>
+      </c>
+      <c r="D288"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45225.375578703701</v>
+      </c>
+      <c r="B289" s="3">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>4856</v>
+      </c>
+      <c r="D289"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>45225.417245370372</v>
+      </c>
+      <c r="B290" s="3">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>4855.8</v>
+      </c>
+      <c r="D290"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>45225.458912037036</v>
+      </c>
+      <c r="B291" s="3">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>4855.5</v>
+      </c>
+      <c r="D291"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>45225.500578703701</v>
+      </c>
+      <c r="B292" s="3">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>4855.3999999999996</v>
+      </c>
+      <c r="D292"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>45225.542245370372</v>
+      </c>
+      <c r="B293" s="3">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>4856</v>
+      </c>
+      <c r="D293"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>45225.583912037036</v>
+      </c>
+      <c r="B294" s="3">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>4855.6000000000004</v>
+      </c>
+      <c r="D294"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>45225.625578703701</v>
+      </c>
+      <c r="B295" s="3">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>4854.8999999999996</v>
+      </c>
+      <c r="D295"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
+++ b/dados_setor_eletrico/16070980 - UHE BALBINA BARRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anaaguas-my.sharepoint.com/personal/josue_flores_ana_gov_br/Documents/DadosUHEs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A8CED05-2C5F-4C51-A68D-3850B3C7ACB6}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_AD4D361C20488DEA4E38A0218C1E75BE5ADEDD85" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{18A34ED9-18FB-4FD7-893D-B5B4EEF7F9D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Chuva (mm)</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4852.9</t>
+  </si>
+  <si>
+    <t>4852.8</t>
+  </si>
+  <si>
+    <t>4852.7</t>
+  </si>
+  <si>
+    <t>4852.6</t>
+  </si>
+  <si>
+    <t>4853.2</t>
+  </si>
+  <si>
+    <t>4853.4</t>
+  </si>
+  <si>
+    <t>4853.1</t>
+  </si>
+  <si>
+    <t>4853.5</t>
+  </si>
+  <si>
+    <t>4853.7</t>
+  </si>
+  <si>
+    <t>4853.6</t>
   </si>
 </sst>
 </file>
@@ -427,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -445,7 +475,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -459,7 +489,7 @@
       <c r="A2" s="2">
         <v>45200.917245370372</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="3">
         <v>4913.7</v>
       </c>
@@ -469,7 +499,7 @@
       <c r="A3" s="2">
         <v>45200.875578703701</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="3">
         <v>4914.8</v>
       </c>
@@ -479,7 +509,7 @@
       <c r="A4" s="2">
         <v>45200.833912037036</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3">
         <v>4914.6000000000004</v>
       </c>
@@ -489,7 +519,7 @@
       <c r="A5" s="2">
         <v>45200.792245370372</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3">
         <v>4915.8</v>
       </c>
@@ -499,7 +529,7 @@
       <c r="A6" s="2">
         <v>45200.750578703701</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3">
         <v>4915.7</v>
       </c>
@@ -509,7 +539,7 @@
       <c r="A7" s="2">
         <v>45200.708912037036</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3">
         <v>4916.8</v>
       </c>
@@ -519,7 +549,7 @@
       <c r="A8" s="2">
         <v>45200.667245370372</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="3">
         <v>4915.8999999999996</v>
       </c>
@@ -529,7 +559,7 @@
       <c r="A9" s="2">
         <v>45200.625578703701</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3">
         <v>4915.5</v>
       </c>
@@ -539,7 +569,7 @@
       <c r="A10" s="2">
         <v>45200.583912037036</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3">
         <v>4915.7</v>
       </c>
@@ -549,7 +579,7 @@
       <c r="A11" s="2">
         <v>45200.542245370372</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="3">
         <v>4915.2</v>
       </c>
@@ -559,7 +589,7 @@
       <c r="A12" s="2">
         <v>45200.500578703701</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="3">
         <v>4915.1000000000004</v>
       </c>
@@ -569,7 +599,7 @@
       <c r="A13" s="2">
         <v>45200.458912037036</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="3">
         <v>4914.6000000000004</v>
       </c>
@@ -579,7 +609,7 @@
       <c r="A14" s="2">
         <v>45200.417245370372</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="3">
         <v>4914.5</v>
       </c>
@@ -589,7 +619,7 @@
       <c r="A15" s="2">
         <v>45200.375578703701</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="3">
         <v>4915</v>
       </c>
@@ -599,7 +629,7 @@
       <c r="A16" s="2">
         <v>45200.333912037036</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="3">
         <v>4914.8999999999996</v>
       </c>
@@ -609,7 +639,7 @@
       <c r="A17" s="2">
         <v>45200.292245370372</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="3">
         <v>4914.8</v>
       </c>
@@ -619,7 +649,7 @@
       <c r="A18" s="2">
         <v>45200.250578703701</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="3">
         <v>4915</v>
       </c>
@@ -629,7 +659,7 @@
       <c r="A19" s="2">
         <v>45200.208912037036</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="3">
         <v>4915.1000000000004</v>
       </c>
@@ -639,7 +669,7 @@
       <c r="A20" s="2">
         <v>45200.167245370372</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="3">
         <v>4914.7</v>
       </c>
@@ -649,7 +679,7 @@
       <c r="A21" s="2">
         <v>45200.125578703701</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="3">
         <v>4914.8</v>
       </c>
@@ -659,7 +689,7 @@
       <c r="A22" s="2">
         <v>45200.000578703701</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="3">
         <v>4915.3999999999996</v>
       </c>
@@ -669,7 +699,7 @@
       <c r="A25" s="2">
         <v>45214.000578703701</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="3">
         <v>4872.5</v>
       </c>
@@ -678,7 +708,7 @@
       <c r="A26" s="2">
         <v>45214.042245370372</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="3">
         <v>4872</v>
       </c>
@@ -687,7 +717,7 @@
       <c r="A27" s="2">
         <v>45214.083912037036</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="3">
         <v>4872.1000000000004</v>
       </c>
@@ -696,7 +726,7 @@
       <c r="A28" s="2">
         <v>45214.125578703701</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="3">
         <v>4872.2</v>
       </c>
@@ -705,7 +735,7 @@
       <c r="A29" s="2">
         <v>45214.167245370372</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="3">
         <v>4872.3</v>
       </c>
@@ -714,7 +744,7 @@
       <c r="A30" s="2">
         <v>45214.208912037036</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="3">
         <v>4871.8999999999996</v>
       </c>
@@ -723,7 +753,7 @@
       <c r="A31" s="2">
         <v>45214.250578703701</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="3">
         <v>4872</v>
       </c>
@@ -732,7 +762,7 @@
       <c r="A32" s="2">
         <v>45214.292245370372</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="3">
         <v>4872</v>
       </c>
@@ -741,7 +771,7 @@
       <c r="A33" s="2">
         <v>45214.333912037036</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="3">
         <v>4872.2</v>
       </c>
@@ -750,7 +780,7 @@
       <c r="A34" s="2">
         <v>45214.375578703701</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="3">
         <v>4871.8</v>
       </c>
@@ -759,7 +789,7 @@
       <c r="A35" s="2">
         <v>45214.417245370372</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="3">
         <v>4871.8</v>
       </c>
@@ -768,7 +798,7 @@
       <c r="A36" s="2">
         <v>45214.458912037036</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="3">
         <v>4871.7</v>
       </c>
@@ -777,7 +807,7 @@
       <c r="A37" s="2">
         <v>45214.500578703701</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="3">
         <v>4871.6000000000004</v>
       </c>
@@ -786,7 +816,7 @@
       <c r="A38" s="2">
         <v>45214.542245370372</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="3">
         <v>4871</v>
       </c>
@@ -795,7 +825,7 @@
       <c r="A39" s="2">
         <v>45214.583912037036</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="3">
         <v>4871.5</v>
       </c>
@@ -804,7 +834,7 @@
       <c r="A40" s="2">
         <v>45214.625578703701</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="3">
         <v>4871.3999999999996</v>
       </c>
@@ -813,7 +843,7 @@
       <c r="A41" s="2">
         <v>45214.667245370372</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="3">
         <v>4871.8</v>
       </c>
@@ -822,7 +852,7 @@
       <c r="A42" s="2">
         <v>45214.708912037036</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="3">
         <v>4872.3</v>
       </c>
@@ -831,7 +861,7 @@
       <c r="A43" s="2">
         <v>45214.750578703701</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="3">
         <v>4871.8999999999996</v>
       </c>
@@ -840,7 +870,7 @@
       <c r="A44" s="2">
         <v>45214.792245370372</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="3">
         <v>4872.2</v>
       </c>
@@ -849,7 +879,7 @@
       <c r="A45" s="2">
         <v>45214.833912037036</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="3">
         <v>4871.7</v>
       </c>
@@ -858,7 +888,7 @@
       <c r="A46" s="2">
         <v>45214.875578703701</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="3">
         <v>4872.3999999999996</v>
       </c>
@@ -867,7 +897,7 @@
       <c r="A47" s="2">
         <v>45215.000578703701</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="3">
         <v>4871.3</v>
       </c>
@@ -877,7 +907,7 @@
       <c r="A48" s="2">
         <v>45215.042245370372</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="3">
         <v>4871.2</v>
       </c>
@@ -887,7 +917,7 @@
       <c r="A49" s="2">
         <v>45215.083912037036</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="3">
         <v>4870.8</v>
       </c>
@@ -897,7 +927,7 @@
       <c r="A50" s="2">
         <v>45215.125578703701</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="3">
         <v>4870.8</v>
       </c>
@@ -907,7 +937,7 @@
       <c r="A51" s="2">
         <v>45215.167245370372</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="3">
         <v>4870.3</v>
       </c>
@@ -917,7 +947,7 @@
       <c r="A52" s="2">
         <v>45215.208912037036</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="3">
         <v>4870</v>
       </c>
@@ -927,7 +957,7 @@
       <c r="A53" s="2">
         <v>45215.250578703701</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="3">
         <v>4870.7</v>
       </c>
@@ -937,7 +967,7 @@
       <c r="A54" s="2">
         <v>45215.292245370372</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="3">
         <v>4870.3999999999996</v>
       </c>
@@ -947,7 +977,7 @@
       <c r="A55" s="2">
         <v>45215.333912037036</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="3">
         <v>4874</v>
       </c>
@@ -957,7 +987,7 @@
       <c r="A56" s="2">
         <v>45215.375578703701</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="3">
         <v>4874.5</v>
       </c>
@@ -967,7 +997,7 @@
       <c r="A57" s="2">
         <v>45215.417245370372</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="3">
         <v>4873.6000000000004</v>
       </c>
@@ -977,7 +1007,7 @@
       <c r="A58" s="2">
         <v>45215.458912037036</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="3">
         <v>4872.8999999999996</v>
       </c>
@@ -987,7 +1017,7 @@
       <c r="A59" s="2">
         <v>45215.500578703701</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="3">
         <v>4872.6000000000004</v>
       </c>
@@ -997,7 +1027,7 @@
       <c r="A60" s="2">
         <v>45215.542245370372</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="3">
         <v>4872</v>
       </c>
@@ -1007,7 +1037,7 @@
       <c r="A61" s="2">
         <v>45215.583912037036</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="3">
         <v>4872.2</v>
       </c>
@@ -1017,7 +1047,7 @@
       <c r="A62" s="2">
         <v>45215.625578703701</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="3">
         <v>4872.3999999999996</v>
       </c>
@@ -1027,7 +1057,7 @@
       <c r="A63" s="2">
         <v>45215.667245370372</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="3">
         <v>4872.6000000000004</v>
       </c>
@@ -1037,7 +1067,7 @@
       <c r="A64" s="2">
         <v>45215.708912037036</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="3">
         <v>4872.7</v>
       </c>
@@ -1047,7 +1077,7 @@
       <c r="A65" s="2">
         <v>45215.750578703701</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="3">
         <v>4872.6000000000004</v>
       </c>
@@ -1057,7 +1087,7 @@
       <c r="A66" s="2">
         <v>45215.792245370372</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="3">
         <v>4872.6000000000004</v>
       </c>
@@ -1067,7 +1097,7 @@
       <c r="A67" s="2">
         <v>45215.833912037036</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="3">
         <v>4872.7</v>
       </c>
@@ -1077,7 +1107,7 @@
       <c r="A68" s="2">
         <v>45215.875578703701</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3">
         <v>4873.2</v>
       </c>
@@ -1087,7 +1117,7 @@
       <c r="A69" s="2">
         <v>45215.917245370372</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="3">
         <v>4872.1000000000004</v>
       </c>
@@ -1097,7 +1127,7 @@
       <c r="A70" s="2">
         <v>45216.000578703701</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3">
@@ -1109,7 +1139,7 @@
       <c r="A71" s="2">
         <v>45216.042245370372</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>0</v>
       </c>
       <c r="C71" s="3">
@@ -1121,7 +1151,7 @@
       <c r="A72" s="2">
         <v>45216.083912037036</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>0</v>
       </c>
       <c r="C72" s="3">
@@ -1133,7 +1163,7 @@
       <c r="A73" s="2">
         <v>45216.125578703701</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>0</v>
       </c>
       <c r="C73" s="3">
@@ -1145,7 +1175,7 @@
       <c r="A74" s="2">
         <v>45216.167245370372</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="C74" s="3">
@@ -1157,7 +1187,7 @@
       <c r="A75" s="2">
         <v>45216.208912037036</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3">
@@ -1169,7 +1199,7 @@
       <c r="A76" s="2">
         <v>45216.250578703701</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>0</v>
       </c>
       <c r="C76" s="3">
@@ -1181,7 +1211,7 @@
       <c r="A77" s="2">
         <v>45216.292245370372</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>0</v>
       </c>
       <c r="C77" s="3">
@@ -1193,7 +1223,7 @@
       <c r="A78" s="2">
         <v>45216.333912037036</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3">
@@ -1205,7 +1235,7 @@
       <c r="A79" s="2">
         <v>45216.375578703701</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3">
@@ -1217,7 +1247,7 @@
       <c r="A80" s="2">
         <v>45216.417245370372</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3">
@@ -1229,7 +1259,7 @@
       <c r="A81" s="2">
         <v>45216.458912037036</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="C81" s="3">
@@ -1241,7 +1271,7 @@
       <c r="A82" s="2">
         <v>45216.500578703701</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="C82" s="3">
@@ -1253,7 +1283,7 @@
       <c r="A83" s="2">
         <v>45216.542245370372</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>0</v>
       </c>
       <c r="C83" s="3">
@@ -1265,7 +1295,7 @@
       <c r="A84" s="2">
         <v>45216.583912037036</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="C84" s="3">
@@ -1277,7 +1307,7 @@
       <c r="A85" s="2">
         <v>45216.625578703701</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="3">
@@ -1289,7 +1319,7 @@
       <c r="A86" s="2">
         <v>45216.667245370372</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3">
@@ -1301,7 +1331,7 @@
       <c r="A87" s="2">
         <v>45216.708912037036</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>0</v>
       </c>
       <c r="C87" s="3">
@@ -1313,7 +1343,7 @@
       <c r="A88" s="2">
         <v>45216.750578703701</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>0</v>
       </c>
       <c r="C88" s="3">
@@ -1325,7 +1355,7 @@
       <c r="A89" s="4">
         <v>45216.792245370372</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>0</v>
       </c>
       <c r="C89" s="3">
@@ -1336,7 +1366,7 @@
       <c r="A90" s="4">
         <v>45216.833912037036</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>0</v>
       </c>
       <c r="C90" s="3">
@@ -1347,7 +1377,7 @@
       <c r="A91" s="4">
         <v>45216.875578703701</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>0</v>
       </c>
       <c r="C91" s="3">
@@ -1358,7 +1388,7 @@
       <c r="A92" s="4">
         <v>45216.917245370372</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="3">
@@ -1369,7 +1399,7 @@
       <c r="A93" s="4">
         <v>45216.958912037036</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="3">
@@ -1753,7 +1783,7 @@
       <c r="B126" s="3">
         <v>0</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>4867.3</v>
       </c>
     </row>
@@ -1764,7 +1794,7 @@
       <c r="B127" s="3">
         <v>0</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>4866.8</v>
       </c>
     </row>
@@ -1775,7 +1805,7 @@
       <c r="B128" s="3">
         <v>0</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <v>4866.3</v>
       </c>
     </row>
@@ -1786,7 +1816,7 @@
       <c r="B129" s="3">
         <v>0</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="3">
         <v>4867.6000000000004</v>
       </c>
     </row>
@@ -1797,7 +1827,7 @@
       <c r="B130" s="3">
         <v>0</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <v>4867</v>
       </c>
     </row>
@@ -1808,7 +1838,7 @@
       <c r="B131" s="3">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <v>4866.3</v>
       </c>
     </row>
@@ -1819,7 +1849,7 @@
       <c r="B132" s="3">
         <v>0</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="3">
         <v>4866.3</v>
       </c>
     </row>
@@ -1830,7 +1860,7 @@
       <c r="B133" s="3">
         <v>0</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>4865.1000000000004</v>
       </c>
     </row>
@@ -1841,7 +1871,7 @@
       <c r="B134" s="3">
         <v>0</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="3">
         <v>4864.8999999999996</v>
       </c>
     </row>
@@ -1852,7 +1882,7 @@
       <c r="B135" s="3">
         <v>0</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="3">
         <v>4863.7</v>
       </c>
     </row>
@@ -1863,7 +1893,7 @@
       <c r="B136" s="3">
         <v>0</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="3">
         <v>4864.3</v>
       </c>
     </row>
@@ -1874,7 +1904,7 @@
       <c r="B137" s="3">
         <v>0</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="3">
         <v>4863.8</v>
       </c>
     </row>
@@ -1885,7 +1915,7 @@
       <c r="B138" s="3">
         <v>0</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="3">
         <v>4864.7</v>
       </c>
     </row>
@@ -1896,7 +1926,7 @@
       <c r="B139" s="3">
         <v>0</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <v>4864.3</v>
       </c>
     </row>
@@ -2039,7 +2069,7 @@
       <c r="B151" s="3">
         <v>0</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="3">
         <v>4861.8</v>
       </c>
     </row>
@@ -2050,7 +2080,7 @@
       <c r="B152" s="3">
         <v>0</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="3">
         <v>4861.3</v>
       </c>
     </row>
@@ -2061,7 +2091,7 @@
       <c r="B153" s="3">
         <v>0</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>4862.5</v>
       </c>
     </row>
@@ -2072,7 +2102,7 @@
       <c r="B154" s="3">
         <v>0</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="3">
         <v>4861.8999999999996</v>
       </c>
     </row>
@@ -2083,7 +2113,7 @@
       <c r="B155" s="3">
         <v>0</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="3">
         <v>4861.8</v>
       </c>
     </row>
@@ -2094,7 +2124,7 @@
       <c r="B156" s="3">
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="3">
         <v>4861.6000000000004</v>
       </c>
     </row>
@@ -2105,7 +2135,7 @@
       <c r="B157" s="3">
         <v>0</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="3">
         <v>4860</v>
       </c>
       <c r="G157" t="s">
@@ -2179,7 +2209,7 @@
       <c r="B163" s="3">
         <v>0</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="3">
         <v>4860.2</v>
       </c>
       <c r="D163"/>
@@ -2191,7 +2221,7 @@
       <c r="B164" s="3">
         <v>0</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="3">
         <v>4860.3999999999996</v>
       </c>
       <c r="D164"/>
@@ -2203,7 +2233,7 @@
       <c r="B165" s="3">
         <v>0</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="3">
         <v>4860.3</v>
       </c>
       <c r="D165"/>
@@ -2215,7 +2245,7 @@
       <c r="B166" s="3">
         <v>0</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="3">
         <v>4860.3</v>
       </c>
       <c r="D166"/>
@@ -2227,7 +2257,7 @@
       <c r="B167" s="3">
         <v>0</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="3">
         <v>4860.5</v>
       </c>
       <c r="D167"/>
@@ -2239,7 +2269,7 @@
       <c r="B168" s="3">
         <v>0</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="3">
         <v>4860.8</v>
       </c>
       <c r="D168"/>
@@ -2251,7 +2281,7 @@
       <c r="B169" s="3">
         <v>0</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="3">
         <v>4861.1000000000004</v>
       </c>
       <c r="D169"/>
@@ -2263,7 +2293,7 @@
       <c r="B170" s="3">
         <v>0</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="3">
         <v>4861.1000000000004</v>
       </c>
       <c r="D170"/>
@@ -2275,7 +2305,7 @@
       <c r="B171" s="3">
         <v>0</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="3">
         <v>4860.7</v>
       </c>
       <c r="D171"/>
@@ -2287,7 +2317,7 @@
       <c r="B172" s="3">
         <v>0</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="3">
         <v>4860.5</v>
       </c>
       <c r="D172"/>
@@ -2299,7 +2329,7 @@
       <c r="B173" s="3">
         <v>0</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="3">
         <v>4860.3999999999996</v>
       </c>
       <c r="D173"/>
@@ -2311,7 +2341,7 @@
       <c r="B174" s="3">
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="3">
         <v>4859.3</v>
       </c>
       <c r="D174"/>
@@ -2323,7 +2353,7 @@
       <c r="B175" s="3">
         <v>0</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="3">
         <v>4860.7</v>
       </c>
       <c r="D175"/>
@@ -2335,7 +2365,7 @@
       <c r="B176" s="3">
         <v>0</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="3">
         <v>4861.2</v>
       </c>
       <c r="D176"/>
@@ -2347,7 +2377,7 @@
       <c r="B177" s="3">
         <v>0</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="3">
         <v>4861.2</v>
       </c>
       <c r="D177"/>
@@ -2359,7 +2389,7 @@
       <c r="B178" s="3">
         <v>0</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="3">
         <v>4860.6000000000004</v>
       </c>
     </row>
@@ -2370,7 +2400,7 @@
       <c r="B179" s="3">
         <v>0</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="3">
         <v>4860.3</v>
       </c>
     </row>
@@ -2381,7 +2411,7 @@
       <c r="B180" s="3">
         <v>0</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="3">
         <v>4859.8999999999996</v>
       </c>
     </row>
@@ -2392,7 +2422,7 @@
       <c r="B181" s="3">
         <v>0</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="3">
         <v>4861.1000000000004</v>
       </c>
     </row>
@@ -2403,7 +2433,7 @@
       <c r="B182" s="3">
         <v>0</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="3">
         <v>4859.6000000000004</v>
       </c>
     </row>
@@ -2414,7 +2444,7 @@
       <c r="B183" s="3">
         <v>0</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="3">
         <v>4859.8999999999996</v>
       </c>
     </row>
@@ -2425,7 +2455,7 @@
       <c r="B184" s="3">
         <v>0</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="3">
         <v>4859.3999999999996</v>
       </c>
     </row>
@@ -2436,7 +2466,7 @@
       <c r="B185" s="3">
         <v>0</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="3">
         <v>4859.1000000000004</v>
       </c>
     </row>
@@ -2447,7 +2477,7 @@
       <c r="B186" s="3">
         <v>0</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="3">
         <v>4859</v>
       </c>
       <c r="D186"/>
@@ -2459,7 +2489,7 @@
       <c r="B187" s="3">
         <v>0</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="3">
         <v>4858.8</v>
       </c>
       <c r="D187"/>
@@ -2471,7 +2501,7 @@
       <c r="B188" s="3">
         <v>0</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="3">
         <v>4858.6000000000004</v>
       </c>
       <c r="D188"/>
@@ -2483,7 +2513,7 @@
       <c r="B189" s="3">
         <v>0</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="3">
         <v>4858.7</v>
       </c>
       <c r="D189"/>
@@ -2495,7 +2525,7 @@
       <c r="B190" s="3">
         <v>0</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="3">
         <v>4859.3999999999996</v>
       </c>
       <c r="D190"/>
@@ -2507,7 +2537,7 @@
       <c r="B191" s="3">
         <v>0</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="3">
         <v>4859.3999999999996</v>
       </c>
       <c r="D191"/>
@@ -2519,7 +2549,7 @@
       <c r="B192" s="3">
         <v>0</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="3">
         <v>4859.7</v>
       </c>
       <c r="D192"/>
@@ -2531,7 +2561,7 @@
       <c r="B193" s="3">
         <v>0</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="3">
         <v>4859.7</v>
       </c>
       <c r="D193"/>
@@ -2543,7 +2573,7 @@
       <c r="B194" s="3">
         <v>0</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="3">
         <v>4859.3</v>
       </c>
       <c r="D194"/>
@@ -2555,7 +2585,7 @@
       <c r="B195" s="3">
         <v>0</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="3">
         <v>4859.2</v>
       </c>
       <c r="D195"/>
@@ -2567,7 +2597,7 @@
       <c r="B196" s="3">
         <v>0</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="3">
         <v>4860.3999999999996</v>
       </c>
       <c r="D196"/>
@@ -2579,7 +2609,7 @@
       <c r="B197" s="3">
         <v>0</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="3">
         <v>4862</v>
       </c>
       <c r="D197"/>
@@ -2591,7 +2621,7 @@
       <c r="B198" s="3">
         <v>0</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="3">
         <v>4859.3</v>
       </c>
       <c r="D198"/>
@@ -2603,7 +2633,7 @@
       <c r="B199" s="3">
         <v>0</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="3">
         <v>4861.3</v>
       </c>
       <c r="D199"/>
@@ -2615,7 +2645,7 @@
       <c r="B200" s="3">
         <v>0</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="3">
         <v>4860.8999999999996</v>
       </c>
       <c r="D200"/>
@@ -2627,7 +2657,7 @@
       <c r="B201" s="3">
         <v>0</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="3">
         <v>4861.7</v>
       </c>
       <c r="D201"/>
@@ -2639,7 +2669,7 @@
       <c r="B202" s="3">
         <v>0</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="3">
         <v>4860.7</v>
       </c>
       <c r="D202"/>
@@ -2651,7 +2681,7 @@
       <c r="B203" s="3">
         <v>0</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="3">
         <v>4862.2</v>
       </c>
       <c r="D203"/>
@@ -2663,7 +2693,7 @@
       <c r="B204" s="3">
         <v>0</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="3">
         <v>4863.1000000000004</v>
       </c>
       <c r="D204"/>
@@ -2675,7 +2705,7 @@
       <c r="B205" s="3">
         <v>0</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="3">
         <v>4862.6000000000004</v>
       </c>
       <c r="D205"/>
@@ -2687,7 +2717,7 @@
       <c r="B206" s="3">
         <v>0</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="3">
         <v>4862.3999999999996</v>
       </c>
       <c r="D206"/>
@@ -2699,7 +2729,7 @@
       <c r="B207" s="3">
         <v>0</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="3">
         <v>4863.1000000000004</v>
       </c>
       <c r="D207"/>
@@ -2711,7 +2741,7 @@
       <c r="B208" s="3">
         <v>0</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="3">
         <v>4862.3999999999996</v>
       </c>
       <c r="D208"/>
@@ -2723,7 +2753,7 @@
       <c r="B209" s="3">
         <v>0</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="3">
         <v>4862.3999999999996</v>
       </c>
       <c r="D209"/>
@@ -2735,7 +2765,7 @@
       <c r="B210" s="3">
         <v>0</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="3">
         <v>4862.2</v>
       </c>
       <c r="D210"/>
@@ -2747,7 +2777,7 @@
       <c r="B211" s="3">
         <v>0</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="3">
         <v>4862.8999999999996</v>
       </c>
       <c r="D211"/>
@@ -2759,7 +2789,7 @@
       <c r="B212" s="3">
         <v>0</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="3">
         <v>4860.8</v>
       </c>
       <c r="D212"/>
@@ -2771,7 +2801,7 @@
       <c r="B213" s="3">
         <v>0</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="3">
         <v>4862</v>
       </c>
       <c r="D213"/>
@@ -2783,7 +2813,7 @@
       <c r="B214" s="3">
         <v>0</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="3">
         <v>4862.2</v>
       </c>
       <c r="D214"/>
@@ -2795,7 +2825,7 @@
       <c r="B215" s="3">
         <v>0</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="3">
         <v>4861.6000000000004</v>
       </c>
       <c r="D215"/>
@@ -2807,7 +2837,7 @@
       <c r="B216" s="3">
         <v>0</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="3">
         <v>4861.3</v>
       </c>
       <c r="D216"/>
@@ -2819,7 +2849,7 @@
       <c r="B217" s="3">
         <v>0</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="3">
         <v>4862.5</v>
       </c>
       <c r="D217"/>
@@ -2831,7 +2861,7 @@
       <c r="B218" s="3">
         <v>0</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="3">
         <v>4862.3</v>
       </c>
       <c r="D218"/>
@@ -2843,7 +2873,7 @@
       <c r="B219" s="3">
         <v>0</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="3">
         <v>4862.5</v>
       </c>
       <c r="D219"/>
@@ -2855,7 +2885,7 @@
       <c r="B220" s="3">
         <v>0</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="3">
         <v>4862.7</v>
       </c>
       <c r="D220"/>
@@ -2867,7 +2897,7 @@
       <c r="B221" s="3">
         <v>0</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="3">
         <v>4862.2</v>
       </c>
       <c r="D221"/>
@@ -2879,7 +2909,7 @@
       <c r="B222" s="3">
         <v>0</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="3">
         <v>4862.3</v>
       </c>
       <c r="D222"/>
@@ -2891,7 +2921,7 @@
       <c r="B223" s="3">
         <v>0</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="3">
         <v>4862.5</v>
       </c>
       <c r="D223"/>
@@ -2903,7 +2933,7 @@
       <c r="B224" s="3">
         <v>0</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="3">
         <v>4861.6000000000004</v>
       </c>
       <c r="D224"/>
@@ -2915,7 +2945,7 @@
       <c r="B225" s="3">
         <v>0</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="3">
         <v>4861.8</v>
       </c>
       <c r="D225"/>
@@ -2927,7 +2957,7 @@
       <c r="B226" s="3">
         <v>0</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="3">
         <v>4861.6000000000004</v>
       </c>
       <c r="D226"/>
@@ -2939,7 +2969,7 @@
       <c r="B227" s="3">
         <v>0</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="3">
         <v>4861.6000000000004</v>
       </c>
       <c r="D227"/>
@@ -2951,7 +2981,7 @@
       <c r="B228" s="3">
         <v>0</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="3">
         <v>4861.7</v>
       </c>
       <c r="D228"/>
@@ -2963,7 +2993,7 @@
       <c r="B229" s="3">
         <v>0</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="3">
         <v>4861.8</v>
       </c>
       <c r="D229"/>
@@ -2975,7 +3005,7 @@
       <c r="B230" s="3">
         <v>0</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="3">
         <v>4861.8</v>
       </c>
       <c r="D230"/>
@@ -2987,7 +3017,7 @@
       <c r="B231" s="3">
         <v>0</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="3">
         <v>4862.1000000000004</v>
       </c>
       <c r="D231"/>
@@ -2999,7 +3029,7 @@
       <c r="B232" s="3">
         <v>0</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="3">
         <v>4862.6000000000004</v>
       </c>
       <c r="D232"/>
@@ -3011,7 +3041,7 @@
       <c r="B233" s="3">
         <v>0</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="3">
         <v>4862.2</v>
       </c>
       <c r="D233"/>
@@ -3023,7 +3053,7 @@
       <c r="B234" s="3">
         <v>0</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="3">
         <v>4861.3999999999996</v>
       </c>
     </row>
@@ -3034,7 +3064,7 @@
       <c r="B235" s="3">
         <v>0</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="3">
         <v>4861.3999999999996</v>
       </c>
     </row>
@@ -3045,7 +3075,7 @@
       <c r="B236" s="3">
         <v>0</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="3">
         <v>4860.2</v>
       </c>
     </row>
@@ -3056,7 +3086,7 @@
       <c r="B237" s="3">
         <v>0</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="3">
         <v>4860.7</v>
       </c>
     </row>
@@ -3067,7 +3097,7 @@
       <c r="B238" s="3">
         <v>0</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="3">
         <v>4860.6000000000004</v>
       </c>
     </row>
@@ -3078,7 +3108,7 @@
       <c r="B239" s="3">
         <v>0</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="3">
         <v>4860.6000000000004</v>
       </c>
     </row>
@@ -3089,7 +3119,7 @@
       <c r="B240" s="3">
         <v>0</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="3">
         <v>4860.5</v>
       </c>
     </row>
@@ -3100,7 +3130,7 @@
       <c r="B241" s="3">
         <v>0</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="3">
         <v>4860.7</v>
       </c>
     </row>
@@ -3111,7 +3141,7 @@
       <c r="B242" s="3">
         <v>0</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="3">
         <v>4860.8999999999996</v>
       </c>
     </row>
@@ -3122,7 +3152,7 @@
       <c r="B243" s="3">
         <v>0</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="3">
         <v>4861</v>
       </c>
     </row>
@@ -3133,7 +3163,7 @@
       <c r="B244" s="3">
         <v>0</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="3">
         <v>4860.7</v>
       </c>
     </row>
@@ -3144,7 +3174,7 @@
       <c r="B245" s="3">
         <v>0</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="3">
         <v>4860</v>
       </c>
     </row>
@@ -3155,7 +3185,7 @@
       <c r="B246" s="3">
         <v>0</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="3">
         <v>4860.2</v>
       </c>
     </row>
@@ -3166,7 +3196,7 @@
       <c r="B247" s="3">
         <v>0</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="3">
         <v>4860.5</v>
       </c>
     </row>
@@ -3177,7 +3207,7 @@
       <c r="B248" s="3">
         <v>0</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="3">
         <v>4859.8</v>
       </c>
     </row>
@@ -3188,7 +3218,7 @@
       <c r="B249" s="3">
         <v>0</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="3">
         <v>4861.1000000000004</v>
       </c>
     </row>
@@ -3199,7 +3229,7 @@
       <c r="B250" s="3">
         <v>0</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="3">
         <v>4862.3999999999996</v>
       </c>
     </row>
@@ -3210,7 +3240,7 @@
       <c r="B251" s="3">
         <v>0</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="3">
         <v>4860.7</v>
       </c>
     </row>
@@ -3221,7 +3251,7 @@
       <c r="B252" s="3">
         <v>0</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="3">
         <v>4861.3</v>
       </c>
     </row>
@@ -3232,7 +3262,7 @@
       <c r="B253" s="3">
         <v>0</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="3">
         <v>4859.8999999999996</v>
       </c>
     </row>
@@ -3243,7 +3273,7 @@
       <c r="B254" s="3">
         <v>0</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="3">
         <v>4860.3999999999996</v>
       </c>
     </row>
@@ -3254,7 +3284,7 @@
       <c r="B255" s="3">
         <v>0</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="3">
         <v>4860.8999999999996</v>
       </c>
     </row>
@@ -3265,7 +3295,7 @@
       <c r="B256" s="3">
         <v>0</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="3">
         <v>4859.6000000000004</v>
       </c>
     </row>
@@ -3276,7 +3306,7 @@
       <c r="B257" s="3">
         <v>0</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="3">
         <v>4859.6000000000004</v>
       </c>
     </row>
@@ -3287,7 +3317,7 @@
       <c r="B258" s="3">
         <v>0</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="3">
         <v>4858.8</v>
       </c>
     </row>
@@ -3298,7 +3328,7 @@
       <c r="B259" s="3">
         <v>0</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="3">
         <v>4859.1000000000004</v>
       </c>
     </row>
@@ -3309,7 +3339,7 @@
       <c r="B260" s="3">
         <v>0</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="3">
         <v>4859.2</v>
       </c>
     </row>
@@ -3320,7 +3350,7 @@
       <c r="B261" s="3">
         <v>0</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="3">
         <v>4859.3</v>
       </c>
     </row>
@@ -3331,7 +3361,7 @@
       <c r="B262" s="3">
         <v>0</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="3">
         <v>4859.1000000000004</v>
       </c>
     </row>
@@ -3342,7 +3372,7 @@
       <c r="B263" s="3">
         <v>0</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="3">
         <v>4858.8999999999996</v>
       </c>
     </row>
@@ -3353,7 +3383,7 @@
       <c r="B264" s="3">
         <v>0</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="3">
         <v>4858.8999999999996</v>
       </c>
     </row>
@@ -3364,7 +3394,7 @@
       <c r="B265" s="3">
         <v>0</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="3">
         <v>4859</v>
       </c>
     </row>
@@ -3375,7 +3405,7 @@
       <c r="B266" s="3">
         <v>0</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="3">
         <v>4858.8999999999996</v>
       </c>
     </row>
@@ -3386,7 +3416,7 @@
       <c r="B267" s="3">
         <v>0</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="3">
         <v>4858.7</v>
       </c>
     </row>
@@ -3397,7 +3427,7 @@
       <c r="B268" s="3">
         <v>0</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="3">
         <v>4858.7</v>
       </c>
     </row>
@@ -3408,7 +3438,7 @@
       <c r="B269" s="3">
         <v>0</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="3">
         <v>4857.8</v>
       </c>
     </row>
@@ -3419,7 +3449,7 @@
       <c r="B270" s="3">
         <v>0</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="3">
         <v>4858.8</v>
       </c>
     </row>
@@ -3430,7 +3460,7 @@
       <c r="B271" s="3">
         <v>0</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="3">
         <v>4858.8</v>
       </c>
     </row>
@@ -3441,7 +3471,7 @@
       <c r="B272" s="3">
         <v>0</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="3">
         <v>4858.7</v>
       </c>
     </row>
@@ -3452,7 +3482,7 @@
       <c r="B273" s="3">
         <v>0</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="3">
         <v>4856.3</v>
       </c>
     </row>
@@ -3463,7 +3493,7 @@
       <c r="B274" s="3">
         <v>0</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="3">
         <v>4857.1000000000004</v>
       </c>
     </row>
@@ -3474,7 +3504,7 @@
       <c r="B275" s="3">
         <v>0</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="3">
         <v>4857</v>
       </c>
     </row>
@@ -3485,7 +3515,7 @@
       <c r="B276" s="3">
         <v>0</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="3">
         <v>4857.6000000000004</v>
       </c>
     </row>
@@ -3496,7 +3526,7 @@
       <c r="B277" s="3">
         <v>0</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="3">
         <v>4856.8999999999996</v>
       </c>
     </row>
@@ -3507,7 +3537,7 @@
       <c r="B278" s="3">
         <v>0</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="3">
         <v>4857.3</v>
       </c>
     </row>
@@ -3518,7 +3548,7 @@
       <c r="B279" s="3">
         <v>0</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="3">
         <v>4855.6000000000004</v>
       </c>
     </row>
@@ -3529,7 +3559,7 @@
       <c r="B280" s="3">
         <v>0</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="3">
         <v>4855.8999999999996</v>
       </c>
       <c r="D280"/>
@@ -3541,7 +3571,7 @@
       <c r="B281" s="3">
         <v>0</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="3">
         <v>4855.8999999999996</v>
       </c>
       <c r="D281"/>
@@ -3553,7 +3583,7 @@
       <c r="B282" s="3">
         <v>0</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="3">
         <v>4855.6000000000004</v>
       </c>
       <c r="D282"/>
@@ -3565,7 +3595,7 @@
       <c r="B283" s="3">
         <v>0</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="3">
         <v>4855.8</v>
       </c>
       <c r="D283"/>
@@ -3577,7 +3607,7 @@
       <c r="B284" s="3">
         <v>0</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="3">
         <v>4855.8999999999996</v>
       </c>
       <c r="D284"/>
@@ -3589,7 +3619,7 @@
       <c r="B285" s="3">
         <v>0</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="3">
         <v>4855.8999999999996</v>
       </c>
       <c r="D285"/>
@@ -3601,7 +3631,7 @@
       <c r="B286" s="3">
         <v>0</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="3">
         <v>4856.1000000000004</v>
       </c>
       <c r="D286"/>
@@ -3613,7 +3643,7 @@
       <c r="B287" s="3">
         <v>0</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="3">
         <v>4856</v>
       </c>
       <c r="D287"/>
@@ -3625,7 +3655,7 @@
       <c r="B288" s="3">
         <v>0</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="3">
         <v>4856.1000000000004</v>
       </c>
       <c r="D288"/>
@@ -3637,7 +3667,7 @@
       <c r="B289" s="3">
         <v>0</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="3">
         <v>4856</v>
       </c>
       <c r="D289"/>
@@ -3649,7 +3679,7 @@
       <c r="B290" s="3">
         <v>0</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="3">
         <v>4855.8</v>
       </c>
       <c r="D290"/>
@@ -3661,7 +3691,7 @@
       <c r="B291" s="3">
         <v>0</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="3">
         <v>4855.5</v>
       </c>
       <c r="D291"/>
@@ -3673,7 +3703,7 @@
       <c r="B292" s="3">
         <v>0</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="3">
         <v>4855.3999999999996</v>
       </c>
       <c r="D292"/>
@@ -3685,7 +3715,7 @@
       <c r="B293" s="3">
         <v>0</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="3">
         <v>4856</v>
       </c>
       <c r="D293"/>
@@ -3697,7 +3727,7 @@
       <c r="B294" s="3">
         <v>0</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="3">
         <v>4855.6000000000004</v>
       </c>
       <c r="D294"/>
@@ -3709,10 +3739,230 @@
       <c r="B295" s="3">
         <v>0</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="3">
         <v>4854.8999999999996</v>
       </c>
       <c r="D295"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45225.667245370372</v>
+      </c>
+      <c r="B296" s="3">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3">
+        <v>4854.3999999999996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>45225.708912037036</v>
+      </c>
+      <c r="B297" s="3">
+        <v>0</v>
+      </c>
+      <c r="C297" s="3">
+        <v>4855.1000000000004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>45225.750578703701</v>
+      </c>
+      <c r="B298" s="3">
+        <v>0</v>
+      </c>
+      <c r="C298" s="3">
+        <v>4853.2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>45225.792245370372</v>
+      </c>
+      <c r="B299" s="3">
+        <v>0</v>
+      </c>
+      <c r="C299" s="3">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>45225.833912037036</v>
+      </c>
+      <c r="B300" s="3">
+        <v>0</v>
+      </c>
+      <c r="C300" s="3">
+        <v>4854.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>45225.875578703701</v>
+      </c>
+      <c r="B301" s="3">
+        <v>0</v>
+      </c>
+      <c r="C301" s="3">
+        <v>4854.3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>45225.917245370372</v>
+      </c>
+      <c r="B302" s="3">
+        <v>0</v>
+      </c>
+      <c r="C302" s="3">
+        <v>4853.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>45225.958912037036</v>
+      </c>
+      <c r="B303" s="3">
+        <v>0</v>
+      </c>
+      <c r="C303" s="3">
+        <v>4853.7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>45226.000578703701</v>
+      </c>
+      <c r="B304" s="3">
+        <v>0</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>45226.042245370372</v>
+      </c>
+      <c r="B305" s="3">
+        <v>0</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>45226.083912037036</v>
+      </c>
+      <c r="B306" s="3">
+        <v>0</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>45226.125578703701</v>
+      </c>
+      <c r="B307" s="3">
+        <v>0</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>45226.167245370372</v>
+      </c>
+      <c r="B308" s="3">
+        <v>0</v>
+      </c>
+      <c r="C308" s="3">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>45226.208912037036</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>45226.250578703701</v>
+      </c>
+      <c r="B310" s="3">
+        <v>0</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>45226.292245370372</v>
+      </c>
+      <c r="B311" s="3">
+        <v>0</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>45226.333912037036</v>
+      </c>
+      <c r="B312" s="3">
+        <v>0</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>45226.375578703701</v>
+      </c>
+      <c r="B313" s="3">
+        <v>0</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>45226.417245370372</v>
+      </c>
+      <c r="B314" s="3">
+        <v>0</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>45226.458912037036</v>
+      </c>
+      <c r="B315" s="3">
+        <v>0</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
